--- a/RNA_cofold_ViennaRNA-2.1.9h/RNAcofold_input_output.xlsx
+++ b/RNA_cofold_ViennaRNA-2.1.9h/RNAcofold_input_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taranewman/Documents/Git/DinoKnot_data/RNA_cofold_ViennaRNA-2.1.9h/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF65908-43F6-FC46-AFEA-C6FA6C6944D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F416DC-13A4-934F-8051-1C80DC1EA63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32620" yWindow="-320" windowWidth="28040" windowHeight="16420" xr2:uid="{95B83670-25EC-D240-9293-B34787521207}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BCF98-C0EE-9E4F-81A5-ACCFDD54B475}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:EA121"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,10 +801,7 @@
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
     </row>
